--- a/DaySale_2025-05-19_15-33.xlsx
+++ b/DaySale_2025-05-19_15-33.xlsx
@@ -113,6 +113,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -146,6 +155,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>OSTEO ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
     <t>OXYPOL EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -185,9 +200,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -264,9 +276,6 @@
   </si>
   <si>
     <t>كريم فاتيكا 190 مل</t>
-  </si>
-  <si>
-    <t>70.00</t>
   </si>
   <si>
     <t>لزقه النمر بسعر القطعه</t>
@@ -850,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45796.647951176885</v>
+        <v>45796.64798593794</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -859,7 +868,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45796.647951176885</v>
+        <v>45796.64798593794</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1104,7 +1113,7 @@
         <v>36</v>
       </c>
       <c t="s" r="M14" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1120,7 +1129,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1128,10 +1137,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="M15" s="11">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1139,7 +1148,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B16" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1147,7 +1156,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1155,10 +1164,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L16" s="8">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c t="s" r="M16" s="11">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1166,7 +1175,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B17" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1174,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1182,7 +1191,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L17" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="M17" s="11">
         <v>14</v>
@@ -1193,7 +1202,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B18" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1201,7 +1210,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1209,10 +1218,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L18" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="M18" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1220,7 +1229,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B19" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1228,7 +1237,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L19" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="M19" s="11">
         <v>21</v>
@@ -1247,7 +1256,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B20" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1255,7 +1264,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1263,7 +1272,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L20" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="M20" s="11">
         <v>21</v>
@@ -1274,7 +1283,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B21" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1282,7 +1291,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1290,10 +1299,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L21" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="M21" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1301,7 +1310,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B22" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1309,7 +1318,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1317,10 +1326,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L22" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="M22" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1328,7 +1337,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B23" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1336,18 +1345,18 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c t="s" r="K23" s="10">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c t="s" r="L23" s="8">
         <v>55</v>
       </c>
       <c t="s" r="M23" s="11">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1363,7 +1372,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1371,7 +1380,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L24" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="M24" s="11">
         <v>14</v>
@@ -1382,7 +1391,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B25" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1395,7 +1404,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c t="s" r="K25" s="10">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c t="s" r="L25" s="8">
         <v>60</v>
@@ -1425,10 +1434,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L26" s="8">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c t="s" r="M26" s="11">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1436,7 +1445,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B27" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1444,15 +1453,15 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c t="s" r="K27" s="10">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c t="s" r="L27" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="M27" s="11">
         <v>21</v>
@@ -1463,7 +1472,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B28" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1471,18 +1480,18 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c t="s" r="K28" s="10">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c t="s" r="L28" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="M28" s="11">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1490,7 +1499,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B29" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1498,15 +1507,15 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c t="s" r="K29" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L29" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="M29" s="11">
         <v>21</v>
@@ -1517,7 +1526,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B30" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1525,15 +1534,15 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c t="s" r="K30" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L30" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="M30" s="11">
         <v>21</v>
@@ -1544,7 +1553,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B31" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1552,12 +1561,12 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c t="s" r="K31" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L31" s="8">
         <v>76</v>
@@ -1579,18 +1588,18 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c t="s" r="K32" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L32" s="8">
         <v>78</v>
       </c>
       <c t="s" r="M32" s="11">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1598,7 +1607,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B33" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1611,10 +1620,10 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c t="s" r="K33" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L33" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="M33" s="11">
         <v>21</v>
@@ -1625,7 +1634,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B34" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1638,13 +1647,13 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c t="s" r="K34" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L34" s="8">
+        <v>82</v>
+      </c>
+      <c t="s" r="M34" s="11">
         <v>83</v>
-      </c>
-      <c t="s" r="M34" s="11">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1660,12 +1669,12 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c t="s" r="K35" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L35" s="8">
         <v>85</v>
@@ -1687,15 +1696,15 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c t="s" r="K36" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L36" s="8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="M36" s="11">
         <v>21</v>
@@ -1714,18 +1723,18 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c t="s" r="K37" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L37" s="8">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c t="s" r="M37" s="11">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -1733,7 +1742,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B38" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1741,43 +1750,97 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c t="s" r="K38" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c t="s" r="L38" s="8">
+        <v>87</v>
+      </c>
+      <c t="s" r="M38" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c t="s" r="B39" s="8">
+        <v>91</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>92</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c t="s" r="K39" s="10">
+        <v>59</v>
+      </c>
+      <c t="s" r="L39" s="8">
         <v>93</v>
       </c>
-      <c t="s" r="M38" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="12">
+      <c t="s" r="M39" s="11">
         <v>94</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c t="s" r="F39" s="13">
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c t="s" r="B40" s="8">
         <v>95</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-      <c t="s" r="I39" s="15">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>94</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c t="s" r="K40" s="10">
+        <v>59</v>
+      </c>
+      <c t="s" r="L40" s="8">
         <v>96</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c t="s" r="M40" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="12">
+        <v>97</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c t="s" r="F41" s="13">
+        <v>98</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c t="s" r="I41" s="15">
+        <v>99</v>
+      </c>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="78">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -1849,9 +1912,13 @@
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:M41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-19_15-33.xlsx
+++ b/DaySale_2025-05-19_15-33.xlsx
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45796.64798593794</v>
+        <v>45796.648021747693</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -868,7 +868,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45796.64798593794</v>
+        <v>45796.648021747693</v>
       </c>
       <c r="K4" s="4"/>
     </row>
